--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjlin\Documents\BJL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9CE23F-CE83-4E39-8B86-DEA16AF2F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46C17C0-5C66-4224-A3AF-4D9C6A38AAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -37,31 +37,31 @@
     <t>why</t>
   </si>
   <si>
-    <t>Ph.D. in Learning, Design, and Technology</t>
-  </si>
-  <si>
-    <t>The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>M.Ed. in Learning, Design, and Technology</t>
-  </si>
-  <si>
-    <t>Sungkyunkwan University</t>
-  </si>
-  <si>
-    <t>Committee members: Drs. Gabriela T. Richard (adviser; dissertation chair), Roy B. Clariana, ChanMin Kim, and Mary Beth Rosson.</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>Double B.A. in Education, English Literature</t>
-  </si>
-  <si>
-    <t>Dissertation Title: "Discovering Informal Learning Cultures of Blind Individuals Pursuing STEM Disciplines: A Computational Ethnography Using Public Listserv Archives."</t>
+    <t>Ph.D. in Geoscience</t>
+  </si>
+  <si>
+    <t>University of Wisconsin - Madison</t>
+  </si>
+  <si>
+    <t>Madison, WI</t>
+  </si>
+  <si>
+    <t>Advisors: Drs. Shanan E. Peters and John W. Valley</t>
+  </si>
+  <si>
+    <t>Dissertation: "Cephalopods."</t>
+  </si>
+  <si>
+    <t>M.S. in Geoscience</t>
+  </si>
+  <si>
+    <t>B.S. in Geology</t>
+  </si>
+  <si>
+    <t>Bowling Green State University</t>
+  </si>
+  <si>
+    <t>Bowling Green, OH</t>
   </si>
 </sst>
 </file>
@@ -904,11 +904,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -925,12 +927,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -939,20 +941,20 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
       <c r="B4">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -961,18 +963,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2009</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>2014</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
